--- a/25-26/AA Stone Trading- B K Exports SOA.xlsx
+++ b/25-26/AA Stone Trading- B K Exports SOA.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B K EXPORTS\BK Exports bills\25-26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75522C18-D707-4D09-B34C-254293C5401A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{94D8C84D-6A8A-49A7-9A3A-21FFE35C6C9A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>invoice number</t>
   </si>
@@ -106,12 +105,27 @@
   </si>
   <si>
     <t>BK028</t>
+  </si>
+  <si>
+    <t>BK029</t>
+  </si>
+  <si>
+    <t>BK030</t>
+  </si>
+  <si>
+    <t>REMARK</t>
+  </si>
+  <si>
+    <t>need to give</t>
+  </si>
+  <si>
+    <t>need to take</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -207,11 +221,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -223,24 +246,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,86 +294,123 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,21 +725,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9FB463-24B5-4190-976D-BE4726932ED8}">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="26"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -668,17 +750,20 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="26" t="s">
         <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -688,16 +773,16 @@
       <c r="B2" s="7">
         <v>7919.25</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="53">
         <v>17843</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="54">
         <v>17843</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="13">
         <v>45810</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="27">
         <f>C2-D2</f>
         <v>0</v>
       </c>
@@ -709,10 +794,10 @@
       <c r="B3" s="7">
         <v>9923.2900000000009</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -721,17 +806,17 @@
       <c r="B4" s="3">
         <v>9118.02</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="29">
         <f>B4</f>
         <v>9118.02</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="56">
         <v>9118.02</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>45814</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="29">
         <f>C4-D4</f>
         <v>0</v>
       </c>
@@ -743,18 +828,18 @@
       <c r="B5" s="3">
         <v>10472.85</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="57">
         <v>19109.25</v>
       </c>
-      <c r="D5" s="43">
-        <v>19109</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="D5" s="31">
+        <v>19109.25</v>
+      </c>
+      <c r="E5" s="15">
         <v>45827</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="30">
         <f>C5-D5</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -764,10 +849,10 @@
       <c r="B6" s="3">
         <v>8636.4</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="43"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -776,19 +861,22 @@
       <c r="B7" s="3">
         <v>9999.76</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="32">
         <f>B7+B8+B9</f>
         <v>25190.3</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="58">
         <v>5632.5</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="15">
         <v>45866</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="32">
         <f>C7-D7-D9</f>
         <v>-1043.6599999999999</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -798,10 +886,11 @@
       <c r="B8" s="3">
         <v>8615.16</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="35"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -810,12 +899,13 @@
       <c r="B9" s="3">
         <v>6575.38</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="10">
+      <c r="C9" s="60"/>
+      <c r="D9" s="56">
         <v>20601.46</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -824,19 +914,22 @@
       <c r="B10" s="7">
         <v>7827.3</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="27">
         <f>B10+B11</f>
         <v>17788.939999999999</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="54">
         <v>16954.599999999999</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="19">
         <v>45870</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="27">
         <f>C10-D10</f>
         <v>834.34000000000015</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -846,10 +939,11 @@
       <c r="B11" s="7">
         <v>9961.64</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -858,19 +952,22 @@
       <c r="B12" s="3">
         <v>10487.4</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="36">
         <f>B12+B13</f>
         <v>20081.010000000002</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="58">
         <v>19870</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="15">
         <v>45874</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="36">
         <f>C12-D12</f>
         <v>211.01000000000204</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="I12" s="8"/>
     </row>
@@ -881,10 +978,11 @@
       <c r="B13" s="3">
         <v>9593.61</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -893,19 +991,22 @@
       <c r="B14" s="3">
         <v>10343.030000000001</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="36">
         <f>B14+B15</f>
         <v>21994.18</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="58">
         <v>22506.639999999999</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="15">
         <v>45897</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="36">
         <f>C14-D14</f>
         <v>-512.45999999999913</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -915,10 +1016,11 @@
       <c r="B15" s="3">
         <v>11651.15</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -927,151 +1029,221 @@
       <c r="B16" s="3">
         <v>9620.1299999999992</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="29">
         <f>B16</f>
         <v>9620.1299999999992</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="56">
         <v>10448.1</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>45930</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="29">
         <f>C16-D16</f>
         <v>-827.97000000000116</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="4">
         <v>8801.9</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="38">
         <f>B17+B18</f>
         <v>18510.77</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="39">
         <v>15018</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="21">
         <v>45946</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="38">
         <f>C17-D17</f>
         <v>3492.7700000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="4">
         <v>9708.8700000000008</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="52"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4">
         <v>9192.35</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="38">
         <f>B19+B20+B21+B22</f>
         <v>32852.65</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="62">
         <v>20179.62</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="23">
         <v>45959</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="40">
         <f>C19-D19-D21</f>
         <v>3503.0300000000025</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4">
         <v>5823.61</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="39"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="52"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4">
         <v>8138.34</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="5">
+      <c r="C21" s="39"/>
+      <c r="D21" s="26">
         <v>9170</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>45960</v>
       </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="41"/>
+      <c r="G21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="4">
         <v>9698.35</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="39"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B23" s="4">
-        <f>SUM(B2:B22)</f>
-        <v>192107.79</v>
-      </c>
-      <c r="C23" s="4">
-        <f>SUM(C2:C22)</f>
-        <v>192108.25</v>
-      </c>
-      <c r="D23" s="5">
-        <f>SUM(D2:D22)</f>
-        <v>186450.94000000003</v>
-      </c>
-      <c r="F23" s="4">
-        <f>SUM(F2:F22)</f>
-        <v>5657.3100000000049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="1">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="4">
-        <f>F23-F24</f>
-        <v>2157.3100000000049</v>
-      </c>
+        <v>8123.74</v>
+      </c>
+      <c r="C23" s="40">
+        <f>B23+B24</f>
+        <v>18721.400000000001</v>
+      </c>
+      <c r="D23" s="63">
+        <v>22291.21</v>
+      </c>
+      <c r="E23" s="44">
+        <v>45981</v>
+      </c>
+      <c r="F23" s="24">
+        <f>C23-D23</f>
+        <v>-3569.8099999999977</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4">
+        <v>10597.66</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="52"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="43">
+        <f>SUM(C2:C24)</f>
+        <v>210829.65</v>
+      </c>
+      <c r="D25" s="26">
+        <f>SUM(D2:D24)</f>
+        <v>208742.40000000002</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="43">
+        <f>SUM(F2:F24)</f>
+        <v>2087.2500000000073</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="51"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
+  <mergeCells count="43">
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F22"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
@@ -1080,25 +1252,22 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E5:E6"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F22"/>
     <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/25-26/AA Stone Trading- B K Exports SOA.xlsx
+++ b/25-26/AA Stone Trading- B K Exports SOA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>invoice number</t>
   </si>
@@ -120,13 +120,37 @@
   </si>
   <si>
     <t>need to take</t>
+  </si>
+  <si>
+    <t>payment date</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>payment made by AA Stone</t>
+  </si>
+  <si>
+    <t>bk export - AA Stone</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>you deducted</t>
+  </si>
+  <si>
+    <t>actual deduction</t>
+  </si>
+  <si>
+    <t>pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +158,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -255,112 +300,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -373,45 +331,187 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,524 +826,779 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="26"/>
+    <col min="6" max="6" width="9.140625" style="14"/>
     <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7">
         <v>7919.25</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="67">
         <v>17843</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="77">
         <v>17843</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="59">
         <v>45810</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="45">
         <f>C2-D2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="7">
         <v>9923.2900000000009</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="68"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="46"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>9118.02</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="69">
         <f>B4</f>
         <v>9118.02</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="79">
         <v>9118.02</v>
       </c>
       <c r="E4" s="9">
         <v>45814</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="15">
         <f>C4-D4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="37">
+        <v>17843</v>
+      </c>
+      <c r="M4" s="40">
+        <v>17843</v>
+      </c>
+      <c r="N4" s="36">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>10472.85</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="56">
         <v>19109.25</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="80">
         <v>19109.25</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="49">
         <v>45827</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="58">
         <f>C5-D5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="37"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="37"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>8636.4</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="31"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="56"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="57"/>
+      <c r="K6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="13">
+        <v>9118</v>
+      </c>
+      <c r="M6" s="13">
+        <v>9118</v>
+      </c>
+      <c r="N6" s="12">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
         <v>9999.76</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="70">
         <f>B7+B8+B9</f>
         <v>25190.3</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="81">
         <v>5632.5</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="49">
         <v>45866</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="42">
         <f>C7-D7-D9</f>
         <v>-1043.6599999999999</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="83">
+        <v>19109</v>
+      </c>
+      <c r="M7" s="37">
+        <v>19109</v>
+      </c>
+      <c r="N7" s="36">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>8615.16</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="47"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="71"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="32"/>
+      <c r="K8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="83"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="36"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>6575.38</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="56">
+      <c r="C9" s="72"/>
+      <c r="D9" s="79">
         <v>20601.46</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="51"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="32"/>
+      <c r="K9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="37">
+        <v>25190</v>
+      </c>
+      <c r="M9" s="13">
+        <v>5632</v>
+      </c>
+      <c r="N9" s="36">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="7">
         <v>7827.3</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="73">
         <f>B10+B11</f>
         <v>17788.939999999999</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="52">
         <v>16954.599999999999</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="54">
         <v>45870</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="45">
         <f>C10-D10</f>
         <v>834.34000000000015</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37">
+        <v>20601</v>
+      </c>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="7">
         <v>9961.64</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="47"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="74"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="32"/>
+      <c r="K11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3">
         <v>10487.4</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="75">
         <f>B12+B13</f>
         <v>20081.010000000002</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="81">
         <v>19870</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="49">
         <v>45874</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="47">
         <f>C12-D12</f>
         <v>211.01000000000204</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="32" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="37">
+        <v>17789</v>
+      </c>
+      <c r="M12" s="83">
+        <v>16954</v>
+      </c>
+      <c r="N12" s="36">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="3">
         <v>9593.61</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="76"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="32"/>
+      <c r="K13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="37"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="3">
         <v>10343.030000000001</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="75">
         <f>B14+B15</f>
         <v>21994.18</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="81">
         <v>22506.639999999999</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="49">
         <v>45897</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="47">
         <f>C14-D14</f>
         <v>-512.45999999999913</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="37">
+        <v>20081</v>
+      </c>
+      <c r="M14" s="37">
+        <v>19870</v>
+      </c>
+      <c r="N14" s="36">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="3">
         <v>11651.15</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="47"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="76"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="32"/>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="3">
         <v>9620.1299999999992</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="69">
         <f>B16</f>
         <v>9620.1299999999992</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="79">
         <v>10448.1</v>
       </c>
       <c r="E16" s="9">
         <v>45930</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="15">
         <f>C16-D16</f>
         <v>-827.97000000000116</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="K16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="37">
+        <v>21994</v>
+      </c>
+      <c r="M16" s="37">
+        <v>22506</v>
+      </c>
+      <c r="N16" s="36">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64">
+        <f>SUM(C2:C16)</f>
+        <v>140744.83000000002</v>
+      </c>
+      <c r="D17" s="65">
+        <f>SUM(D2:D16)</f>
+        <v>142083.57000000004</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="64">
+        <f>SUM(F2:F16)</f>
+        <v>-1338.739999999998</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="K17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="18"/>
+      <c r="K18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="13">
+        <v>9620</v>
+      </c>
+      <c r="M18" s="13">
+        <v>10448</v>
+      </c>
+      <c r="N18" s="12">
+        <v>45930</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="18"/>
+      <c r="K20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="1">
+        <f>SUM(L4:L18)</f>
+        <v>140744</v>
+      </c>
+      <c r="M20" s="1">
+        <f>SUM(M4:M18)</f>
+        <v>142081</v>
+      </c>
+      <c r="N20" s="84">
+        <f>M20-L20</f>
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B21" s="4">
         <v>8801.9</v>
       </c>
-      <c r="C17" s="38">
-        <f>B17+B18</f>
+      <c r="C21" s="34">
+        <f>B21+B22</f>
         <v>18510.77</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D21" s="35">
         <v>15018</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E21" s="36">
         <v>45946</v>
       </c>
-      <c r="F17" s="38">
-        <f>C17-D17</f>
+      <c r="F21" s="34">
+        <f>C21-D21</f>
         <v>3492.7700000000004</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G21" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B22" s="4">
         <v>9708.8700000000008</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="52"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="33"/>
+      <c r="M22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B23" s="4">
         <v>9192.35</v>
       </c>
-      <c r="C19" s="38">
-        <f>B19+B20+B21+B22</f>
+      <c r="C23" s="34">
+        <f>B23+B24+B25+B26</f>
         <v>32852.65</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D23" s="38">
         <v>20179.62</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E23" s="39">
         <v>45959</v>
       </c>
-      <c r="F19" s="40">
-        <f>C19-D19-D21</f>
+      <c r="F23" s="24">
+        <f>C23-D23-D25</f>
         <v>3503.0300000000025</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G23" s="33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="M23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B24" s="4">
         <v>5823.61</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="52"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C24" s="35"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="33"/>
+      <c r="M24" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="85">
+        <f>N22-N23</f>
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B25" s="4">
         <v>8138.34</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="26">
+      <c r="C25" s="35"/>
+      <c r="D25" s="14">
         <v>9170</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E25" s="10">
         <v>45960</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="52"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="F25" s="41"/>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B26" s="4">
         <v>9698.35</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="52"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="C26" s="35"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B27" s="4">
         <v>8123.74</v>
       </c>
-      <c r="C23" s="40">
-        <f>B23+B24</f>
+      <c r="C27" s="24">
+        <f>B27+B28</f>
         <v>18721.400000000001</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D27" s="26">
         <v>22291.21</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E27" s="28">
         <v>45981</v>
       </c>
-      <c r="F23" s="24">
-        <f>C23-D23</f>
+      <c r="F27" s="30">
+        <f>C27-D27</f>
         <v>-3569.8099999999977</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G27" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B28" s="4">
         <v>10597.66</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="52"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="43">
-        <f>SUM(C2:C24)</f>
-        <v>210829.65</v>
-      </c>
-      <c r="D25" s="26">
-        <f>SUM(D2:D24)</f>
-        <v>208742.40000000002</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="43">
-        <f>SUM(F2:F24)</f>
-        <v>2087.2500000000073</v>
-      </c>
-      <c r="G25" s="46" t="s">
+      <c r="C28" s="25"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="17">
+        <f>SUM(C2:C28)</f>
+        <v>351574.4800000001</v>
+      </c>
+      <c r="D29" s="14">
+        <f>SUM(D2:D28)</f>
+        <v>350825.97000000009</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="17">
+        <f>SUM(F2:F28)</f>
+        <v>748.51000000000931</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="51"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="C23:C24"/>
+  <mergeCells count="62">
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F23:F26"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
@@ -1257,18 +1612,24 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="C23:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>